--- a/data3.xlsx
+++ b/data3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,116 +434,613 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Lenovo IdeaPad...</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Dell Vostro 15...</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Galaxy Tab 3</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr"/>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>$1212.16</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>$497.17</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>$97.99</t>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Natures Multigrain Bread 400G Pack</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MRP ₹105</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/e9a62a91-0970-4fd4-839a-0239817477ba_425x425.jpg</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.webscraper.io//test-sites/e-commerce/static/product/125</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.webscraper.io//test-sites/e-commerce/static/product/92</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.webscraper.io//test-sites/e-commerce/static/product/18</t>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>The Health Factory Multi Protein Li..</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MRP ₹155</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/1349316_1_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>The Bakers Dozen Banana Walnut Cake..</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>MRP ₹309</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/df640a30-7e81-459b-b647-d858a406ccf0_425x425.jpg</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lenovo IdeaPad...</t>
+          <t>The Protein Bread Multi Protein Veg..</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$1212.16</t>
+          <t>MRP ₹105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.webscraper.io//test-sites/e-commerce/static/product/125</t>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/1354887_1_425x425.jpg</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dell Vostro 15...</t>
+          <t>Brownie Cottage Pure Choco Eggless ..</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$497.17</t>
+          <t>MRP ₹220</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://www.webscraper.io//test-sites/e-commerce/static/product/92</t>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/5de6b784-e01c-4bc7-a26d-ad8edeed294a_425x425.jpg</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Galaxy Tab 3</t>
+          <t>Brownie Cottage Pure Choco Eggless ..</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$97.99</t>
+          <t>MRP ₹220</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.webscraper.io//test-sites/e-commerce/static/product/18</t>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/5de6b784-e01c-4bc7-a26d-ad8edeed294a_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fiorenza Multigrain Bread 400 Gm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MRP ₹105</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/62ef72b5-2ed3-4ff9-ba16-3a0558e5b29f_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fiorenza Whole Wheat Bread 400 Gm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>MRP ₹90</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/c068fd50-0a24-41e2-bcf4-00b3ac3ea497_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fiorenza White Sliced Bread 400 Gm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MRP ₹80</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/0d1f0105-f430-42cb-b766-220f01c5af5a_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fiorenza Rich Mawa Bar Cake 250 Gm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>MRP ₹249</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/93d27e7d-b4c4-47d4-ad4e-e58d8ad70b3d_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fiorenza Whole Wheat Burger Buns (P..</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MRP ₹70</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/9c781ad2-b0fb-4080-ae8e-fbe34961c4a0_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fiorenza Multigrain Sandwich Bread ..</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>MRP ₹75</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/123d220d-e73a-4bec-8db2-ea8edcb1dc52_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fiorenza Zesty Lemon Cake 250 Gm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>MRP ₹249</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/8b8b9be4-c2fd-4538-b827-0ba0c5f4a8d3_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fiorenza Banana Walnut Cake 250 Gm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>MRP ₹249</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/4bd0c2ae-2484-41a1-af63-4b6d88fdf689_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Fiorenza Pizza Pull Apart Bread&amp;Nbs..</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MRP ₹185</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/cc7c2236-e943-45dd-9393-fca1f038244e_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Fiorenza Lavash Cheese &amp; Herbs 200 ..</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MRP ₹179</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/5acd1ca3-b2d6-43c9-870f-ebffb60b05d8_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fiorenza Multigrain Cheese Straw 17..</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MRP ₹199</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/e3a85b22-3815-436a-80d1-986ff31669bf_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fiorenza Wholewheat Pizza Base 200 ..</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MRP ₹80</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/d45ee242-64e0-49ec-a327-56a1faa37f75_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fiorenza Pesto Parmesan Babka&amp;Nbsp..</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MRP ₹229</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/9ba5ef77-193d-46bf-9723-ea0583c5206c_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Fiorenza Coffee Crumble Cake 250 Gm</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MRP ₹249</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/fc936d68-e057-4dfd-a2a2-f737f096eac1_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Fiorenza Italian Thin Crust Pizza W..</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MRP ₹125</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/9439cc7a-3632-4bc3-8314-0ac45af5bd71_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Fiorenza Garlic Toast 200 Gm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MRP ₹169</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/c3fe0757-7a33-43e1-907b-232c94920902_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Fiorenza Angel Barcake 225 Gm</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MRP ₹249</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/6a05bb0e-e4d3-48cf-a914-131b610b7e69_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Fiorenza Lavash Peri Peri 200 Gm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MRP ₹179</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/6d5d74fc-d3a3-4a58-8c6a-45f529e5dde5_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Fiorenza Chocolate Overload Cake 25..</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MRP ₹249</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/813512fc-eeac-45e4-baca-f88e8225b6f0_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Fiorenza Wheat Lavash 200 Gm</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MRP ₹169</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/2bcaf668-3ca9-4760-8231-ccd71ddcd68a_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Fiorenza Lavash Cheesy Jalapeno 200..</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>MRP ₹179</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/7ed6d10a-eb64-43d6-b87b-a81ea67f7538_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Fiorenza Pesto Pull Apart 200 Gm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>MRP ₹179</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/e5f3822e-8d04-4cc6-80fc-28137cad5944_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Fiorenza Lavash Sour Cream &amp; Onion ..</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>MRP ₹179</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/13f33aae-4f16-4bd2-a546-7078309ded4d_425x425.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Fiorenza Garlic &amp; Herb Loaf&amp;Nbsp 2..</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>MRP ₹179</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://d1z88p83zuviay.cloudfront.net/ProductVariantThumbnailImages/83e0e6b6-fc21-429d-9aec-2c02a8cbe5e0_425x425.jpg</t>
         </is>
       </c>
     </row>
